--- a/insert/dataToInsert/pendentifs2.xlsx
+++ b/insert/dataToInsert/pendentifs2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Travail\Peip\S4\Projet Parcours Numérique\jewelryshop\insert\dataToInsert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD64D1D-A490-4BCF-BAF8-19BC5A5CF38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A31F3-BC9B-47A6-9761-133065C047C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="23">
   <si>
     <t>typeProduit</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>PENDENTIFS</t>
+  </si>
+  <si>
+    <t>G00000000000000092015</t>
+  </si>
+  <si>
+    <t>G00000000000000042015</t>
+  </si>
+  <si>
+    <t>G00000000000000022015</t>
   </si>
 </sst>
 </file>
@@ -920,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,6 +1338,159 @@
         <v>5</v>
       </c>
     </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
